--- a/yudao-module-debrief/yudao-module-debrief-biz/src/main/resources/template/东北大学学生党员述责测评结果统计表.xlsx
+++ b/yudao-module-debrief/yudao-module-debrief-biz/src/main/resources/template/东北大学学生党员述责测评结果统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects2023\pandacloudgame\yudao-module-debrief\yudao-module-debrief-biz\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{847F5B2F-7007-4DA6-A7A4-95A009A2EEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D18870E-D111-4E80-855A-EC4B13306D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -65,7 +65,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -87,7 +87,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -109,7 +109,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -131,7 +131,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -153,7 +153,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -175,19 +175,19 @@
       </rPr>
       <t>以下</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得各类满意票的党员人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得各类满意票和基本满意票之和的党员人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得各类不满意票的党员人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -201,7 +201,7 @@
       </rPr>
       <t>100%</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -223,7 +223,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -245,7 +245,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -267,7 +267,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -289,7 +289,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -311,7 +311,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -333,7 +333,7 @@
       </rPr>
       <t>以下</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -347,7 +347,7 @@
       </rPr>
       <t>10%—19%</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -369,7 +369,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -391,7 +391,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -413,47 +413,47 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参加述责       党员人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参加测评       学生人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>占本科生述责党员比率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>占研究生述责党员比率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本科生述责党员数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>研究生述责党员数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>述责党员总数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>占述责党员总数比率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学生满意率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -475,33 +475,11 @@
       </rPr>
       <t>以内</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不满意票数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以下</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学生党员人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -516,35 +494,35 @@
       </rPr>
       <t>东北大学{year}年学生党员述责测评结果统计表</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学院（部）：{collegeName}                          {dateymd}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{allPartyMemberCount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{coverPartyMemberCount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{coverStudentCount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{benKePartyMemberCount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{yanJiuShengPartyMemberCount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_1_1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_1_2}</t>
@@ -590,55 +568,55 @@
   </si>
   <si>
     <t>{c1_2_1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_3_1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_4_1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_5_1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_6_1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_7_1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_1_3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_2_3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_3_3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_4_3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_5_3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_6_3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_7_3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{c1_1_5}</t>
@@ -915,21 +893,38 @@
   </si>
   <si>
     <t>{c3_6_6}</t>
+  </si>
+  <si>
+    <r>
+      <t>不满意票数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1018,6 +1013,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1419,7 +1420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1436,22 +1437,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1472,34 +1473,49 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1508,55 +1524,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1862,11 +1866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,587 +1886,592 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="30" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="44" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="40"/>
+        <v>36</v>
+      </c>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="27.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="8" t="s">
-        <v>32</v>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A4:A5"/>
@@ -2471,14 +2480,9 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="A20:A25"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.77" right="0.61" top="0.57999999999999996" bottom="0.47244094488188981" header="0.41" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2490,28 +2494,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
